--- a/PinMap.xlsx
+++ b/PinMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NekoPurrTech_Skylark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B20616-EEE3-4EA1-9C44-9497BDCB7813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1491CC-4198-4BC2-932E-643131F58D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-5664" windowWidth="17496" windowHeight="30216" xr2:uid="{D4AD9717-E2D0-499C-828E-9AF979A2EB06}"/>
   </bookViews>
@@ -548,95 +548,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39547F42-DAEB-4787-99F1-E784D9BD1F05}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -966,376 +963,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1382,7 +1379,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1391,44 +1388,44 @@
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1437,32 +1434,32 @@
       <c r="C40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1477,6 +1474,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="A31:A32"/>
@@ -1489,24 +1502,8 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PinMap.xlsx
+++ b/PinMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NekoPurrTech_Skylark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1491CC-4198-4BC2-932E-643131F58D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A0D71-B48A-4E37-9E1B-E07E9006F17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-5664" windowWidth="17496" windowHeight="30216" xr2:uid="{D4AD9717-E2D0-499C-828E-9AF979A2EB06}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>PH0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,271 +159,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXT_COMPASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PB8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S.BUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX（DNP）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VTX （HD/Analog）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESC_TELEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEEPER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMERA_CTRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GYRO_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_VBAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_CURR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_RSSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_STRIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VTX_PW_SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PC15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VTX Power Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PC9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S.BUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX（DNP）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VTX （HD/Analog）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESC_TELEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRSF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crystal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wireless Debug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEEPER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAMERA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAMERA_CTRL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GYRO_CLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOTOR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOTOR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOTOR3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOTOR4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_VBAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_CURR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_RSSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_STRIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC8</t>
+    <t>SERVO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TIM8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crsf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,6 +621,30 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,31 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,21 +977,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39547F42-DAEB-4787-99F1-E784D9BD1F05}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>61</v>
+      <c r="A1" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -972,22 +999,22 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -996,42 +1023,42 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1040,42 +1067,42 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1084,42 +1111,42 @@
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1128,352 +1155,400 @@
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="C20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="D21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="D27" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="D32" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="D19:D20"/>
@@ -1490,20 +1565,6 @@
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
